--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3197926.710590032</v>
+        <v>3195428.975239582</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>353.9506830819033</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>340.2822244767483</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359323</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916754</v>
+        <v>1.360597680916698</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050974</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.564408141696</v>
       </c>
       <c r="G3" t="n">
-        <v>134.5737685148403</v>
+        <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370744</v>
+        <v>45.84481919370742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353365</v>
+        <v>21.62032152353362</v>
       </c>
       <c r="S3" t="n">
         <v>148.1873837356351</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>192.5149992577177</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.2464269675771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>130.1083741650749</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>317.0909106029383</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>129.2224443473098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>252.108512051538</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>269.937274051073</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>142.5318748130976</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>129.2224443473098</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.5212963318317</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176154</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999791</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833856</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613248</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>123.7971820797027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1655.170909687171</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.208392746759</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="D2" t="n">
-        <v>927.9426941400088</v>
+        <v>1319.780116977249</v>
       </c>
       <c r="E2" t="n">
-        <v>927.9426941400088</v>
+        <v>1319.780116977249</v>
       </c>
       <c r="F2" t="n">
-        <v>516.9567893504013</v>
+        <v>908.7942121876413</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870192</v>
+        <v>491.6845516730794</v>
       </c>
       <c r="H2" t="n">
         <v>173.2373706870192</v>
@@ -4328,25 +4328,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088481</v>
+        <v>239.520839851238</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118211</v>
+        <v>319.3563181321744</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181029</v>
+        <v>868.7856527384564</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639725</v>
+        <v>1496.738196660078</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680358</v>
+        <v>1799.39813470192</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.72675629197</v>
+        <v>1965.954194448896</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2392.185658263123</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888807</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924062</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2418.775999924062</v>
+        <v>2008.368946827792</v>
       </c>
       <c r="V2" t="n">
-        <v>2418.775999924062</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>2418.775999924062</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.310241662983</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.170909687171</v>
+        <v>1677.306059484222</v>
       </c>
     </row>
     <row r="3">
@@ -4395,37 +4395,37 @@
         <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9709519779227</v>
+        <v>337.4909562725569</v>
       </c>
       <c r="G3" t="n">
         <v>200.037852467983</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507491</v>
+        <v>99.0088177150749</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496333</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524139</v>
+        <v>497.8519368624344</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900073</v>
+        <v>999.722330600028</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.737331912395</v>
+        <v>1176.312616922416</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.31393793169</v>
+        <v>1828.486496225125</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892693</v>
+        <v>2375.192736186129</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C4" t="n">
         <v>52.70091953961285</v>
@@ -4492,16 +4492,16 @@
         <v>152.6313247131523</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039128</v>
+        <v>336.0342731039129</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856109</v>
+        <v>539.7960902856111</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066362</v>
+        <v>744.1475233066363</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249417</v>
+        <v>916.8828514249418</v>
       </c>
       <c r="P4" t="n">
         <v>1041.167083351318</v>
@@ -4510,28 +4510,28 @@
         <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221467</v>
+        <v>912.8607263634872</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221467</v>
+        <v>705.2494094117189</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221467</v>
+        <v>705.2494094117189</v>
       </c>
       <c r="U4" t="n">
-        <v>754.6272514870836</v>
+        <v>416.0966976773356</v>
       </c>
       <c r="V4" t="n">
-        <v>499.9427632811968</v>
+        <v>416.0966976773356</v>
       </c>
       <c r="W4" t="n">
-        <v>210.5255932442362</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="X4" t="n">
-        <v>210.5255932442362</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2244.906645004831</v>
+        <v>947.13753815053</v>
       </c>
       <c r="C5" t="n">
-        <v>1875.944128064419</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="D5" t="n">
-        <v>1517.678429457669</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.890176859424</v>
+        <v>192.386768611874</v>
       </c>
       <c r="F5" t="n">
-        <v>720.9042720698169</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
-        <v>303.8164903062444</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4568,22 +4568,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>256.7652667212221</v>
+        <v>353.1092040676443</v>
       </c>
       <c r="L5" t="n">
-        <v>809.5785249674213</v>
+        <v>905.9224623138435</v>
       </c>
       <c r="M5" t="n">
-        <v>996.277937792829</v>
+        <v>1537.640273297155</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.045976980643</v>
+        <v>1657.570719220219</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.045976980643</v>
+        <v>1337.276870126342</v>
       </c>
       <c r="Y5" t="n">
-        <v>2244.906645004831</v>
+        <v>947.13753815053</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.988200066146</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.6668354622486</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>350.7306525343417</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>1042.959359998985</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>1042.959359998985</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>817.3301633113501</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V7" t="n">
-        <v>922.1078794360185</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W7" t="n">
-        <v>922.1078794360185</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X7" t="n">
-        <v>922.1078794360185</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.3153002924884</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2248.446136916521</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="C8" t="n">
-        <v>1879.483619976109</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="D8" t="n">
-        <v>1521.217921369358</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="E8" t="n">
-        <v>1135.429668771114</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4437639815067</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G8" t="n">
-        <v>307.3559822179341</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4805,22 +4805,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>621.7125031813</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>1174.525761427499</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1806.243572410811</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>1893.890498810603</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>1541.121843540489</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.045976980643</v>
+        <v>1167.656085279409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2635.045976980643</v>
+        <v>777.5167533035972</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.1945570251878</v>
+        <v>196.6725102599135</v>
       </c>
       <c r="C10" t="n">
-        <v>481.2583740972809</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>331.1417346849452</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>183.228641102552</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.635600998958</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.8430218554275</v>
+        <v>378.3209750901532</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684177</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,10 +5534,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>527.7722521572603</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>113.2847658273458</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188236</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188873027</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>184.7513690535374</v>
+        <v>461.1122511579964</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.4162601197904</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>101.2797400137713</v>
+        <v>198.5968484445008</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>167.9634363311155</v>
+        <v>163.3181754619436</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>300.8166970235944</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>240.7280987119437</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405073</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.3204386478853</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367988</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45968844823102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62386594322854</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911104</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788786</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788786</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788786</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788786</v>
       </c>
     </row>
     <row r="13">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312474</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287552</v>
@@ -26344,16 +26344,16 @@
         <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918867</v>
+        <v>787455.5478918869</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500822</v>
+        <v>4906.247008500592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765849</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157139</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.134210298286955e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707279</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707312</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707333</v>
+        <v>6897.424496707337</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707343</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707343</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707337</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707365</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707425</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707414</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707373</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707346</v>
+        <v>6897.424496707343</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707332</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707337</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051732</v>
+        <v>86500.62127051734</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26476,7 +26476,7 @@
         <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346436.6006220612</v>
+        <v>-346436.6006220618</v>
       </c>
       <c r="C6" t="n">
-        <v>436995.4113636522</v>
+        <v>436995.4113636523</v>
       </c>
       <c r="D6" t="n">
-        <v>441901.6583721533</v>
+        <v>441901.6583721532</v>
       </c>
       <c r="E6" t="n">
-        <v>-177455.0268684438</v>
+        <v>-177489.7647938794</v>
       </c>
       <c r="F6" t="n">
-        <v>598233.3204081412</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="G6" t="n">
-        <v>598233.3204081404</v>
+        <v>598198.582482705</v>
       </c>
       <c r="H6" t="n">
-        <v>598233.3204081412</v>
+        <v>598198.582482705</v>
       </c>
       <c r="I6" t="n">
-        <v>598233.3204081405</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="J6" t="n">
-        <v>425872.3280078598</v>
+        <v>425837.5900824239</v>
       </c>
       <c r="K6" t="n">
-        <v>598233.3204081408</v>
+        <v>598198.5824827051</v>
       </c>
       <c r="L6" t="n">
-        <v>598233.3204081408</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="M6" t="n">
-        <v>470155.7235924273</v>
+        <v>470120.9856669913</v>
       </c>
       <c r="N6" t="n">
-        <v>598233.3204081408</v>
+        <v>598198.5824827051</v>
       </c>
       <c r="O6" t="n">
-        <v>598233.3204081405</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="P6" t="n">
-        <v>598233.3204081411</v>
+        <v>598198.5824827051</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225489</v>
+        <v>588.0881844225491</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,19 +26796,19 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.417762872858694e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225489</v>
+        <v>588.0881844225491</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915516134</v>
+        <v>5.38791591551588</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.001937312313192e-14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544884</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.7323585387796925</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>72.65633943266795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.504804251687887</v>
       </c>
       <c r="G3" t="n">
-        <v>1.504804251687858</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775208</v>
+        <v>18.38275699775205</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.00799907887333</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.33822638451772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>184.9325099101407</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>52.64019007553077</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>119.5937030778187</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>122.9151989765182</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>62.93237202367752</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.81498441906194</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.7149462855302</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.19860367562146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.800087421563317e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718788</v>
+        <v>2.364173605718789</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956754</v>
+        <v>24.21209293956755</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447366</v>
+        <v>91.14480293447369</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683751</v>
+        <v>200.6562795683752</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984515</v>
+        <v>300.7317482984516</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844679</v>
+        <v>373.0843262844681</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451694</v>
+        <v>415.1281986451696</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024179</v>
+        <v>421.8454069024181</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105517</v>
+        <v>398.3366556105519</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193691</v>
+        <v>339.9711197193693</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645649</v>
+        <v>255.304152464565</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602329</v>
+        <v>148.508520260233</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031693</v>
+        <v>53.87360604031695</v>
       </c>
       <c r="T2" t="n">
         <v>10.349169959034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.189133888457503</v>
+        <v>0.1891338884575031</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.264944396682464</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111748</v>
+        <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770764</v>
+        <v>43.55181365770765</v>
       </c>
       <c r="J3" t="n">
         <v>119.5095054777937</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555187</v>
+        <v>204.2607800555188</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305499</v>
+        <v>274.65382613055</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102891</v>
+        <v>320.5080605102892</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704974</v>
+        <v>328.9909551704976</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808491</v>
+        <v>300.9624503808493</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489522</v>
+        <v>241.5488997489523</v>
       </c>
       <c r="Q3" t="n">
         <v>161.4690426361686</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910949</v>
+        <v>78.53751262910951</v>
       </c>
       <c r="S3" t="n">
         <v>23.49578736820277</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908701</v>
+        <v>5.098613598908702</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753054</v>
+        <v>0.08322002609753057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,28 +31197,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942301</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577921</v>
+        <v>9.428692530577925</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753758</v>
+        <v>31.89173301753759</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892069</v>
+        <v>74.97642311892072</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314782</v>
+        <v>123.2092950314783</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646945</v>
+        <v>157.6654781646946</v>
       </c>
       <c r="M4" t="n">
         <v>166.23614039341</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308979</v>
+        <v>162.283416530898</v>
       </c>
       <c r="O4" t="n">
         <v>149.8950014983901</v>
@@ -31227,19 +31227,19 @@
         <v>128.261068943567</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780489</v>
+        <v>88.80131584780491</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776928</v>
+        <v>47.6833468877693</v>
       </c>
       <c r="S4" t="n">
         <v>18.48139425472174</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026195</v>
+        <v>4.531171257026196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139831</v>
+        <v>0.05784473945139833</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334968</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963281</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32549,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745669</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338208</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168885</v>
+        <v>188.7069902137627</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347097</v>
+        <v>80.64189725347109</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649311</v>
+        <v>554.9791258649313</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107292</v>
+        <v>634.2954989107293</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178112</v>
+        <v>305.717109133173</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076886</v>
+        <v>168.2384441888651</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640995</v>
+        <v>430.5368321355824</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011545</v>
+        <v>245.3134532500202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.7629141515359</v>
       </c>
       <c r="K3" t="n">
         <v>330.8845780937384</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541349</v>
+        <v>506.939791654135</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882708</v>
+        <v>178.3740265882709</v>
       </c>
       <c r="N3" t="n">
-        <v>382.4006121407016</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131342</v>
+        <v>552.2285252131344</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745592</v>
+        <v>240.9907524544125</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859961</v>
+        <v>21.48726855014709</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,16 +34866,16 @@
         <v>205.8200173552506</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101265</v>
+        <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124297</v>
+        <v>174.4801294124298</v>
       </c>
       <c r="P4" t="n">
         <v>125.5396282084605</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110501</v>
+        <v>2.63927259611053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>184.6768658466929</v>
+        <v>281.9939742774224</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>368.6268117378475</v>
+        <v>363.9815508686756</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35033,7 +35033,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>384.2138228565159</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>441.3914741186757</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591378</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790016</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394658</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
